--- a/StockPredictor/bin/Debug/Packages/Data/Repeater/HZNP/HZNPNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Repeater/HZNP/HZNPNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Up</t>
+  </si>
+  <si>
+    <t>Strong Buy</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +447,7 @@
   <cols>
     <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
@@ -1678,6 +1681,1161 @@
       <c r="W16">
         <v>0</v>
       </c>
+      <c r="X16">
+        <v>-0.14000000000000057</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42650.894247685188</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>4752</v>
+      </c>
+      <c r="F17">
+        <v>646</v>
+      </c>
+      <c r="G17">
+        <v>64</v>
+      </c>
+      <c r="H17">
+        <v>34</v>
+      </c>
+      <c r="I17">
+        <v>91</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>7253</v>
+      </c>
+      <c r="L17">
+        <v>114</v>
+      </c>
+      <c r="M17">
+        <v>61</v>
+      </c>
+      <c r="N17">
+        <v>21</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17">
+        <v>48.072548835089435</v>
+      </c>
+      <c r="R17">
+        <v>0.49</v>
+      </c>
+      <c r="S17" s="2">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="T17" s="2">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="U17">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>18.96</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42650.895868055559</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>225</v>
+      </c>
+      <c r="F18">
+        <v>37</v>
+      </c>
+      <c r="G18">
+        <v>83</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>2117</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18">
+        <v>90.744733264040747</v>
+      </c>
+      <c r="R18">
+        <v>0.49</v>
+      </c>
+      <c r="S18" s="2">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="T18" s="2">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="U18">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>-0.16000000000000014</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42650.897268518522</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1911</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19">
+        <v>47.855516766948995</v>
+      </c>
+      <c r="R19">
+        <v>0.49</v>
+      </c>
+      <c r="S19" s="2">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="T19" s="2">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="U19">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V19" t="s">
+        <v>27</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42650.898657407408</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>2010</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20">
+        <v>47.427279001430676</v>
+      </c>
+      <c r="R20">
+        <v>0.49</v>
+      </c>
+      <c r="S20" s="2">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="T20" s="2">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="U20">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V20" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>-0.31000000000000227</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42650.900081018517</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1871</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21">
+        <v>46.288194637767106</v>
+      </c>
+      <c r="R21">
+        <v>0.49</v>
+      </c>
+      <c r="S21" s="2">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="T21" s="2">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="U21">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V21" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>-0.31000000000000227</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42650.901458333334</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1952</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22">
+        <v>46.288194637767106</v>
+      </c>
+      <c r="R22">
+        <v>0.49</v>
+      </c>
+      <c r="S22" s="2">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="T22" s="2">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="U22">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>-0.16000000000000014</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42650.90283564815</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1910</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23">
+        <v>47.855516766948995</v>
+      </c>
+      <c r="R23">
+        <v>0.49</v>
+      </c>
+      <c r="S23" s="2">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="T23" s="2">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="U23">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V23" t="s">
+        <v>27</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>-0.16000000000000014</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42650.904178240744</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2019</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24">
+        <v>47.855516766948995</v>
+      </c>
+      <c r="R24">
+        <v>0.49</v>
+      </c>
+      <c r="S24" s="2">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="T24" s="2">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="U24">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V24" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>-0.16000000000000014</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42650.905636574076</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2046</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25">
+        <v>47.855516766948995</v>
+      </c>
+      <c r="R25">
+        <v>0.49</v>
+      </c>
+      <c r="S25" s="2">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="T25" s="2">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="U25">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V25" t="s">
+        <v>27</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42650.907013888886</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>2014</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26">
+        <v>49.648699822833571</v>
+      </c>
+      <c r="R26">
+        <v>0.49</v>
+      </c>
+      <c r="S26" s="2">
+        <v>7.3901999999999995E-2</v>
+      </c>
+      <c r="T26" s="2">
+        <v>-9.1710000000000003E-3</v>
+      </c>
+      <c r="U26">
+        <v>2.2774999999999999</v>
+      </c>
+      <c r="V26" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42650.908402777779</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>2109</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27">
+        <v>49.648699822833571</v>
+      </c>
+      <c r="R27">
+        <v>0.49</v>
+      </c>
+      <c r="S27" s="2">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="T27" s="2">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="U27">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V27" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>-0.11000000000000298</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42650.909745370373</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1928</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28">
+        <v>48.401813244079072</v>
+      </c>
+      <c r="R28">
+        <v>0.49</v>
+      </c>
+      <c r="S28" s="2">
+        <v>5.731E-2</v>
+      </c>
+      <c r="T28" s="2">
+        <v>-2.4479999999999998E-2</v>
+      </c>
+      <c r="U28">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="V28" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42650.911157407405</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>2019</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q29">
+        <v>48.51257266884749</v>
+      </c>
+      <c r="R29">
+        <v>0.49</v>
+      </c>
+      <c r="S29" s="2">
+        <v>6.0909999999999999E-2</v>
+      </c>
+      <c r="T29" s="2">
+        <v>-2.1160000000000002E-2</v>
+      </c>
+      <c r="U29">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="V29" t="s">
+        <v>27</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>-4.00000000000027E-2</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42650.912511574075</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>2070</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q30">
+        <v>49.187922491789458</v>
+      </c>
+      <c r="R30">
+        <v>0.49</v>
+      </c>
+      <c r="S30" s="2">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="T30" s="2">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="U30">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V30" t="s">
+        <v>27</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42650.913900462961</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1886</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q31">
+        <v>49.766343184980393</v>
+      </c>
+      <c r="R31">
+        <v>0.49</v>
+      </c>
+      <c r="S31" s="2">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="T31" s="2">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="U31">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V31" t="s">
+        <v>27</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/Repeater/HZNP/HZNPNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Repeater/HZNP/HZNPNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -439,21 +439,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -2836,6 +2836,83 @@
       <c r="W31">
         <v>0</v>
       </c>
+      <c r="X31">
+        <v>-0.21000000000000085</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42651.425115740742</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>1075</v>
+      </c>
+      <c r="F32">
+        <v>181</v>
+      </c>
+      <c r="G32">
+        <v>71</v>
+      </c>
+      <c r="H32">
+        <v>28</v>
+      </c>
+      <c r="I32">
+        <v>95</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>13145</v>
+      </c>
+      <c r="L32">
+        <v>23</v>
+      </c>
+      <c r="M32">
+        <v>9</v>
+      </c>
+      <c r="N32">
+        <v>20</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q32">
+        <v>47.963765586266284</v>
+      </c>
+      <c r="R32">
+        <v>0.49</v>
+      </c>
+      <c r="S32" s="2">
+        <v>5.21E-2</v>
+      </c>
+      <c r="T32" s="2">
+        <v>-2.1399999999999999E-2</v>
+      </c>
+      <c r="U32">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V32" t="s">
+        <v>27</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
